--- a/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>IFNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,11 +997,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1007,14 +1026,17 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,31 +1097,32 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>-2400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1116,8 +1142,11 @@
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,22 +1154,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>2400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1160,8 +1189,11 @@
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,19 +1220,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1211,19 +1244,22 @@
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1349,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,13 +1361,13 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1334,28 +1376,31 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1365,11 +1410,11 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1378,11 +1423,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1490,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,13 +1502,13 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1466,28 +1517,31 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,13 +1549,13 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1510,28 +1564,31 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,19 +1784,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -1739,19 +1808,22 @@
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,13 +1831,13 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -1774,28 +1846,31 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1913,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,13 +1925,13 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -1862,77 +1940,83 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,17 +2052,18 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2011,17 +2097,20 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2037,8 +2126,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,17 +2285,20 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,17 +2661,20 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2634,7 +2764,7 @@
         <v>6100</v>
       </c>
       <c r="G57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="H57" s="3">
         <v>6000</v>
@@ -2663,19 +2793,22 @@
       <c r="P57" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3500</v>
       </c>
       <c r="G58" s="3">
         <v>3500</v>
@@ -2687,28 +2820,31 @@
         <v>3500</v>
       </c>
       <c r="J58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K58" s="3">
         <v>3400</v>
       </c>
       <c r="L58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M58" s="3">
         <v>3300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1400</v>
       </c>
       <c r="O58" s="3">
         <v>1400</v>
       </c>
       <c r="P58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2722,37 +2858,40 @@
         <v>6000</v>
       </c>
       <c r="G59" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H59" s="3">
         <v>5900</v>
       </c>
       <c r="I59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J59" s="3">
         <v>5800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>5300</v>
       </c>
       <c r="P59" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2763,40 +2902,43 @@
         <v>13200</v>
       </c>
       <c r="F60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="G60" s="3">
         <v>15600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>15200</v>
       </c>
       <c r="K60" s="3">
         <v>15200</v>
       </c>
       <c r="L60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="M60" s="3">
         <v>15000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,18 +2979,21 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -2875,16 +3020,19 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E66" s="3">
         <v>13400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>15300</v>
       </c>
       <c r="K66" s="3">
         <v>15300</v>
       </c>
       <c r="L66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="M66" s="3">
         <v>15100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-122800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-122600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-122500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-124800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-124600</v>
       </c>
       <c r="H72" s="3">
         <v>-124600</v>
       </c>
       <c r="I72" s="3">
+        <v>-124600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-124500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-124400</v>
       </c>
       <c r="K72" s="3">
         <v>-124400</v>
       </c>
       <c r="L72" s="3">
+        <v>-124400</v>
+      </c>
+      <c r="M72" s="3">
         <v>-124200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-123900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-122100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-121900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-121700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-13300</v>
+        <v>-13200</v>
       </c>
       <c r="E76" s="3">
         <v>-13300</v>
       </c>
       <c r="F76" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-15700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-15600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-15500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-15400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-15300</v>
       </c>
       <c r="K76" s="3">
         <v>-15300</v>
       </c>
       <c r="L76" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="M76" s="3">
         <v>-15100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-14800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-13000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-12900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3705,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,13 +3769,13 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -3590,28 +3784,31 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,11 +4117,11 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -3931,13 +4147,16 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,31 +4173,32 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,17 +4312,20 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,19 +4566,22 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4363,13 +4608,16 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,17 +4660,20 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>IFNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,26 +1022,32 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-2400</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1029,14 +1069,20 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,37 +1150,39 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>-2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1145,8 +1199,14 @@
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,28 +1214,28 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1192,8 +1252,14 @@
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,10 +1288,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1232,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
@@ -1247,19 +1315,25 @@
         <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,60 +1432,72 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2300</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1413,27 +1505,27 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2300</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2300</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,10 +1924,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -1796,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
@@ -1811,66 +1951,78 @@
         <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2300</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2300</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2062,14 +2236,14 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2100,23 +2274,29 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2129,11 +2309,11 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2297,14 +2501,14 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2335,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2673,14 +2925,14 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2767,10 +3029,10 @@
         <v>6100</v>
       </c>
       <c r="H57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="I57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="J57" s="3">
         <v>6000</v>
@@ -2796,8 +3058,14 @@
       <c r="Q57" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S57" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2805,16 +3073,16 @@
         <v>1100</v>
       </c>
       <c r="E58" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F58" s="3">
         <v>1100</v>
       </c>
       <c r="G58" s="3">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="H58" s="3">
-        <v>3500</v>
+        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>3500</v>
@@ -2823,33 +3091,39 @@
         <v>3500</v>
       </c>
       <c r="K58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M58" s="3">
         <v>3400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E59" s="3">
         <v>6000</v>
@@ -2861,16 +3135,16 @@
         <v>6000</v>
       </c>
       <c r="H59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J59" s="3">
         <v>5900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>5800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>5700</v>
       </c>
       <c r="L59" s="3">
         <v>5800</v>
@@ -2879,66 +3153,78 @@
         <v>5700</v>
       </c>
       <c r="N59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="E60" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="F60" s="3">
         <v>13200</v>
       </c>
       <c r="G60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I60" s="3">
         <v>15600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>15500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>15400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>15300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>15200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>15000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>14700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>12800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>12600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2982,10 +3268,16 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2993,13 +3285,13 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -3023,16 +3315,22 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F66" s="3">
         <v>13200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>13300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>15600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>15400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>15300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>15100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>14800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>13000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>12900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-122900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-122800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-122600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-122500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-124800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-124600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-124600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-124500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-124400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-124400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-124200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-123900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-122100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-121900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-121700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-13200</v>
+        <v>-13300</v>
       </c>
       <c r="E76" s="3">
         <v>-13300</v>
       </c>
       <c r="F76" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="G76" s="3">
         <v>-13300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="I76" s="3">
         <v>-15700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-15600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-15500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-15400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-15300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-15300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-15100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-14800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-13000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>2300</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4120,13 +4554,13 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -4150,13 +4584,19 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,19 +4614,21 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -4200,11 +4642,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,22 +4769,28 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,17 +5070,17 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4611,13 +5103,19 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,23 +5161,29 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>IFNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,29 +1045,32 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>-6200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,40 +1178,41 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>-2400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,31 +1244,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,25 +1325,25 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-100</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
@@ -1321,19 +1355,22 @@
         <v>-100</v>
       </c>
       <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,13 +1422,16 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1438,32 +1478,35 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>6000</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
@@ -1471,36 +1514,39 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1511,11 +1557,11 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1524,11 +1570,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,32 +1646,35 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>6000</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
@@ -1630,52 +1682,55 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>6000</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
@@ -1683,28 +1738,31 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,25 +1997,25 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
@@ -1957,43 +2027,46 @@
         <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>6000</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
@@ -2001,28 +2074,31 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,32 +2150,35 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>6000</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
@@ -2107,86 +2186,92 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,13 +2313,14 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2242,11 +2329,11 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2280,13 +2367,16 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>4</v>
@@ -2294,12 +2384,12 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2315,8 +2405,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,13 +2591,16 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2507,11 +2609,11 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,13 +3039,16 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2931,11 +3057,11 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,13 +3141,14 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6100</v>
+        <v>1200</v>
       </c>
       <c r="E57" s="3">
         <v>6100</v>
@@ -3035,7 +3166,7 @@
         <v>6100</v>
       </c>
       <c r="J57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K57" s="3">
         <v>6000</v>
@@ -3064,13 +3195,16 @@
       <c r="S57" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>1100</v>
@@ -3079,13 +3213,13 @@
         <v>1100</v>
       </c>
       <c r="G58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3500</v>
       </c>
       <c r="J58" s="3">
         <v>3500</v>
@@ -3097,36 +3231,39 @@
         <v>3500</v>
       </c>
       <c r="M58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="N58" s="3">
         <v>3400</v>
       </c>
       <c r="O58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P58" s="3">
         <v>3300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1400</v>
       </c>
       <c r="R58" s="3">
         <v>1400</v>
       </c>
       <c r="S58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E59" s="3">
         <v>6100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>6000</v>
       </c>
       <c r="F59" s="3">
         <v>6000</v>
@@ -3141,48 +3278,51 @@
         <v>6000</v>
       </c>
       <c r="J59" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K59" s="3">
         <v>5900</v>
       </c>
       <c r="L59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="M59" s="3">
         <v>5800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>5300</v>
       </c>
       <c r="S59" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13300</v>
+        <v>6900</v>
       </c>
       <c r="E60" s="3">
         <v>13300</v>
       </c>
       <c r="F60" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="G60" s="3">
         <v>13200</v>
@@ -3191,40 +3331,43 @@
         <v>13200</v>
       </c>
       <c r="I60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J60" s="3">
         <v>15600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>15200</v>
       </c>
       <c r="N60" s="3">
         <v>15200</v>
       </c>
       <c r="O60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="P60" s="3">
         <v>15000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3274,10 +3417,13 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3291,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3321,16 +3467,19 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
       </c>
       <c r="S62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13300</v>
+        <v>6900</v>
       </c>
       <c r="E66" s="3">
         <v>13300</v>
       </c>
       <c r="F66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="G66" s="3">
         <v>13200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>15300</v>
       </c>
       <c r="N66" s="3">
         <v>15300</v>
       </c>
       <c r="O66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="P66" s="3">
         <v>15100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-123000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-122900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-122800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-122600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-122500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-124800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-124600</v>
       </c>
       <c r="K72" s="3">
         <v>-124600</v>
       </c>
       <c r="L72" s="3">
+        <v>-124600</v>
+      </c>
+      <c r="M72" s="3">
         <v>-124500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-124400</v>
       </c>
       <c r="N72" s="3">
         <v>-124400</v>
       </c>
       <c r="O72" s="3">
+        <v>-124400</v>
+      </c>
+      <c r="P72" s="3">
         <v>-124200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-123900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-122100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-121900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-121700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-13300</v>
+        <v>-6700</v>
       </c>
       <c r="E76" s="3">
         <v>-13300</v>
       </c>
       <c r="F76" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-13200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-13300</v>
       </c>
       <c r="H76" s="3">
         <v>-13300</v>
       </c>
       <c r="I76" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="J76" s="3">
         <v>-15700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-15600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-15500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-15400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-15300</v>
       </c>
       <c r="N76" s="3">
         <v>-15300</v>
       </c>
       <c r="O76" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="P76" s="3">
         <v>-15100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-13000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-12900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,90 +4281,96 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>6000</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
@@ -4183,28 +4378,31 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,13 +4756,16 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4560,10 +4777,10 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -4590,13 +4807,16 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,11 +4848,11 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -4648,8 +4869,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,25 +5002,28 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,13 +5304,16 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5076,13 +5322,13 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -5109,13 +5355,16 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,26 +5416,29 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>IFNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,35 +1081,41 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-6200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1098,14 +1137,20 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,46 +1230,48 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>-6000</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>-2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1235,8 +1288,14 @@
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,37 +1303,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>6000</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>2400</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1291,8 +1350,14 @@
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1328,14 +1395,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
@@ -1343,13 +1410,13 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
@@ -1358,19 +1425,25 @@
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,19 +1498,25 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1481,78 +1560,90 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>6000</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2300</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1560,27 +1651,27 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>6000</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2300</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>6000</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2300</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2000,13 +2139,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -2015,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
@@ -2030,75 +2169,87 @@
         <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>6000</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2300</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>6000</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2300</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,32 +2485,34 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2370,32 +2543,38 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+      <c r="F42" s="3">
+        <v>100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2408,11 +2587,11 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,32 +2791,38 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,32 +3287,38 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,19 +3401,21 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
-        <v>6100</v>
-      </c>
       <c r="F57" s="3">
-        <v>6100</v>
+        <v>1200</v>
       </c>
       <c r="G57" s="3">
         <v>6100</v>
@@ -3169,10 +3430,10 @@
         <v>6100</v>
       </c>
       <c r="K57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="L57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="M57" s="3">
         <v>6000</v>
@@ -3198,8 +3459,14 @@
       <c r="T57" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V57" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,25 +3474,25 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>1100</v>
       </c>
       <c r="H58" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1100</v>
       </c>
       <c r="J58" s="3">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="K58" s="3">
-        <v>3500</v>
+        <v>1100</v>
       </c>
       <c r="L58" s="3">
         <v>3500</v>
@@ -3234,42 +3501,48 @@
         <v>3500</v>
       </c>
       <c r="N58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P58" s="3">
         <v>3400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G59" s="3">
         <v>6100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>6000</v>
       </c>
       <c r="H59" s="3">
         <v>6000</v>
@@ -3281,16 +3554,16 @@
         <v>6000</v>
       </c>
       <c r="K59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5900</v>
-      </c>
-      <c r="M59" s="3">
-        <v>5800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>5700</v>
       </c>
       <c r="O59" s="3">
         <v>5800</v>
@@ -3299,75 +3572,87 @@
         <v>5700</v>
       </c>
       <c r="Q59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="R59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="S59" s="3">
         <v>5600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>5300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
         <v>6900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G60" s="3">
         <v>13300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>13300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>13200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>13200</v>
       </c>
       <c r="I60" s="3">
         <v>13200</v>
       </c>
       <c r="J60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="L60" s="3">
         <v>15600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>15400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>15300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>15200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>15200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>15000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>14700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>12800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>12600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3420,10 +3705,16 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3440,13 +3731,13 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3470,16 +3761,22 @@
         <v>100</v>
       </c>
       <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>200</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
         <v>6900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G66" s="3">
         <v>13300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>13300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>13200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>13400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>13300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>15700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>15600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>15400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>15100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>14800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>13000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>12900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-117300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-117200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-117000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-123000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-122900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-122800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-122600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-122500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-124800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-124600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-124600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-124500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-124400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-124400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-124200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-123900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-122100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-121900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-121700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-6700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-13300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-13200</v>
       </c>
       <c r="H76" s="3">
         <v>-13300</v>
       </c>
       <c r="I76" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J76" s="3">
         <v>-13300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="L76" s="3">
         <v>-15700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-15600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-15500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-15400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-15300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-15300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-14800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-13000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-12900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>6000</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2300</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,10 +5201,10 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4780,13 +5213,13 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4810,13 +5243,19 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4851,14 +5292,14 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -4872,11 +5313,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,31 +5458,37 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,35 +5792,41 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5358,13 +5849,19 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,32 +5916,38 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>IFNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,13 +819,16 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,38 +1104,41 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-6200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-2400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1143,37 +1163,40 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,49 +1258,50 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-6000</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>-2400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,40 +1333,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>6000</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1401,25 +1435,25 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>-100</v>
-      </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
@@ -1431,19 +1465,22 @@
         <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,13 +1553,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1566,41 +1606,44 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>6000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
@@ -1608,28 +1651,31 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,11 +1685,11 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1657,11 +1703,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1670,11 +1716,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,41 +1801,44 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>6000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
@@ -1794,61 +1846,64 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>6000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
@@ -1856,28 +1911,31 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2145,25 +2215,25 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
@@ -2175,52 +2245,55 @@
         <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>1300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>6000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
@@ -2228,28 +2301,31 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,41 +2386,44 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>6000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
@@ -2352,95 +2431,101 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,23 +2573,24 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2511,11 +2598,11 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2558,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+      <c r="G42" s="3">
+        <v>100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -2572,12 +2662,12 @@
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2593,8 +2683,8 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2611,31 +2701,34 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,22 +2896,25 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2821,11 +2923,11 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,31 +3026,34 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,22 +3416,25 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3317,11 +3443,11 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3412,13 +3543,13 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>1200</v>
       </c>
       <c r="G57" s="3">
-        <v>6100</v>
+        <v>1200</v>
       </c>
       <c r="H57" s="3">
         <v>6100</v>
@@ -3436,7 +3567,7 @@
         <v>6100</v>
       </c>
       <c r="M57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="N57" s="3">
         <v>6000</v>
@@ -3465,22 +3596,25 @@
       <c r="V57" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1100</v>
       </c>
       <c r="H58" s="3">
         <v>1100</v>
@@ -3489,13 +3623,13 @@
         <v>1100</v>
       </c>
       <c r="J58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>3500</v>
       </c>
       <c r="M58" s="3">
         <v>3500</v>
@@ -3507,45 +3641,48 @@
         <v>3500</v>
       </c>
       <c r="P58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="Q58" s="3">
         <v>3400</v>
       </c>
       <c r="R58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S58" s="3">
         <v>3300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1400</v>
       </c>
       <c r="U58" s="3">
         <v>1400</v>
       </c>
       <c r="V58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
-      </c>
-      <c r="E59" s="3">
-        <v>5500</v>
       </c>
       <c r="F59" s="3">
         <v>5500</v>
       </c>
       <c r="G59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H59" s="3">
         <v>6100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>6000</v>
       </c>
       <c r="I59" s="3">
         <v>6000</v>
@@ -3560,57 +3697,60 @@
         <v>6000</v>
       </c>
       <c r="M59" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="N59" s="3">
         <v>5900</v>
       </c>
       <c r="O59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="P59" s="3">
         <v>5800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>5300</v>
       </c>
       <c r="V59" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
-      </c>
-      <c r="E60" s="3">
-        <v>6900</v>
       </c>
       <c r="F60" s="3">
         <v>6900</v>
       </c>
       <c r="G60" s="3">
-        <v>13300</v>
+        <v>6900</v>
       </c>
       <c r="H60" s="3">
         <v>13300</v>
       </c>
       <c r="I60" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="J60" s="3">
         <v>13200</v>
@@ -3619,40 +3759,43 @@
         <v>13200</v>
       </c>
       <c r="L60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="M60" s="3">
         <v>15600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>15200</v>
       </c>
       <c r="Q60" s="3">
         <v>15200</v>
       </c>
       <c r="R60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="S60" s="3">
         <v>15000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3711,15 +3854,18 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3737,10 +3883,10 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -3767,16 +3913,19 @@
         <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>200</v>
       </c>
       <c r="V62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>6900</v>
       </c>
       <c r="F66" s="3">
         <v>6900</v>
       </c>
       <c r="G66" s="3">
-        <v>13300</v>
+        <v>6900</v>
       </c>
       <c r="H66" s="3">
         <v>13300</v>
       </c>
       <c r="I66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J66" s="3">
         <v>13200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>15300</v>
       </c>
       <c r="Q66" s="3">
         <v>15300</v>
       </c>
       <c r="R66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="S66" s="3">
         <v>15100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-117700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-117300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-117200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-117000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-123000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-122900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-122800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-122600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-122500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-124800</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-124600</v>
       </c>
       <c r="N72" s="3">
         <v>-124600</v>
       </c>
       <c r="O72" s="3">
+        <v>-124600</v>
+      </c>
+      <c r="P72" s="3">
         <v>-124500</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-124400</v>
       </c>
       <c r="Q72" s="3">
         <v>-124400</v>
       </c>
       <c r="R72" s="3">
+        <v>-124400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-124200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-123900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-122100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-121900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-121700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-13300</v>
       </c>
       <c r="H76" s="3">
         <v>-13300</v>
       </c>
       <c r="I76" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="J76" s="3">
         <v>-13200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-13300</v>
       </c>
       <c r="K76" s="3">
         <v>-13300</v>
       </c>
       <c r="L76" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="M76" s="3">
         <v>-15700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-15600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-15500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-15400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-15300</v>
       </c>
       <c r="Q76" s="3">
         <v>-15300</v>
       </c>
       <c r="R76" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="S76" s="3">
         <v>-15100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-14800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-13000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-12900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,108 +4856,114 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>6000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
@@ -4776,28 +4971,31 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,13 +5406,16 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -5207,7 +5424,7 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5219,10 +5436,10 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -5249,13 +5466,16 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5298,11 +5519,11 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -5319,8 +5540,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,16 +5691,19 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -5481,17 +5711,17 @@
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,23 +6041,26 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5822,13 +6068,13 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5855,13 +6101,16 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,35 +6171,38 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>IFNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,16 +826,19 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -887,16 +894,19 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,41 +1124,44 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-6200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-2400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1166,22 +1186,25 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -1198,8 +1221,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,52 +1285,53 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-6000</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,43 +1363,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6000</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>2400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1438,25 +1472,25 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
@@ -1468,19 +1502,22 @@
         <v>-100</v>
       </c>
       <c r="T20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1300</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1609,43 +1649,46 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-200</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>6000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1654,28 +1697,31 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1706,11 +1752,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1719,11 +1765,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,43 +1853,46 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-200</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>6000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1849,63 +1901,66 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-200</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>6000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1914,28 +1969,31 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2218,25 +2288,25 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
@@ -2248,54 +2318,57 @@
         <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>1300</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-200</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
         <v>6000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2304,28 +2377,31 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,43 +2465,46 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-200</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
         <v>6000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2434,98 +2513,104 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,26 +2660,27 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2601,11 +2688,11 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2651,13 +2741,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+      <c r="H42" s="3">
+        <v>100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -2665,12 +2755,12 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2686,8 +2776,8 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2704,16 +2794,19 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -2730,8 +2823,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,31 +2930,34 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2899,25 +2998,28 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -2926,11 +3028,11 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,16 +3134,19 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>900</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -3055,8 +3163,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,25 +3542,28 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -3446,11 +3572,11 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,25 +3664,26 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>900</v>
       </c>
       <c r="F57" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="G57" s="3">
         <v>1200</v>
       </c>
       <c r="H57" s="3">
-        <v>6100</v>
+        <v>1200</v>
       </c>
       <c r="I57" s="3">
         <v>6100</v>
@@ -3570,7 +3701,7 @@
         <v>6100</v>
       </c>
       <c r="N57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="O57" s="3">
         <v>6000</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1100</v>
@@ -3626,13 +3760,13 @@
         <v>1100</v>
       </c>
       <c r="K58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>3500</v>
       </c>
       <c r="N58" s="3">
         <v>3500</v>
@@ -3644,28 +3778,31 @@
         <v>3500</v>
       </c>
       <c r="Q58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="R58" s="3">
         <v>3400</v>
       </c>
       <c r="S58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T58" s="3">
         <v>3300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3100</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1400</v>
       </c>
       <c r="V58" s="3">
         <v>1400</v>
       </c>
       <c r="W58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,19 +3810,19 @@
         <v>1200</v>
       </c>
       <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>2900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>5500</v>
       </c>
       <c r="G59" s="3">
         <v>5500</v>
       </c>
       <c r="H59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I59" s="3">
         <v>6100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>6000</v>
       </c>
       <c r="J59" s="3">
         <v>6000</v>
@@ -3700,60 +3837,63 @@
         <v>6000</v>
       </c>
       <c r="N59" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="O59" s="3">
         <v>5900</v>
       </c>
       <c r="P59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Q59" s="3">
         <v>5800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5400</v>
-      </c>
-      <c r="V59" s="3">
-        <v>5300</v>
       </c>
       <c r="W59" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>6900</v>
       </c>
       <c r="G60" s="3">
         <v>6900</v>
       </c>
       <c r="H60" s="3">
-        <v>13300</v>
+        <v>6900</v>
       </c>
       <c r="I60" s="3">
         <v>13300</v>
       </c>
       <c r="J60" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="K60" s="3">
         <v>13200</v>
@@ -3762,45 +3902,48 @@
         <v>13200</v>
       </c>
       <c r="M60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="N60" s="3">
         <v>15600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>15200</v>
       </c>
       <c r="R60" s="3">
         <v>15200</v>
       </c>
       <c r="S60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="T60" s="3">
         <v>15000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3857,10 +4000,13 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,7 +4014,7 @@
         <v>1700</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3886,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -3916,16 +4062,19 @@
         <v>100</v>
       </c>
       <c r="U62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V62" s="3">
         <v>200</v>
       </c>
       <c r="W62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>6900</v>
       </c>
       <c r="G66" s="3">
         <v>6900</v>
       </c>
       <c r="H66" s="3">
-        <v>13300</v>
+        <v>6900</v>
       </c>
       <c r="I66" s="3">
         <v>13300</v>
       </c>
       <c r="J66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K66" s="3">
         <v>13200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>15300</v>
       </c>
       <c r="R66" s="3">
         <v>15300</v>
       </c>
       <c r="S66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="T66" s="3">
         <v>15100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-118200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-117700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-117300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-117200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-117000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-123000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-122900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-122800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-122600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-122500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-124800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-124600</v>
       </c>
       <c r="O72" s="3">
         <v>-124600</v>
       </c>
       <c r="P72" s="3">
+        <v>-124600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-124500</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-124400</v>
       </c>
       <c r="R72" s="3">
         <v>-124400</v>
       </c>
       <c r="S72" s="3">
+        <v>-124400</v>
+      </c>
+      <c r="T72" s="3">
         <v>-124200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-123900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-122100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-121900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-121700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-13300</v>
       </c>
       <c r="I76" s="3">
         <v>-13300</v>
       </c>
       <c r="J76" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-13200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-13300</v>
       </c>
       <c r="L76" s="3">
         <v>-13300</v>
       </c>
       <c r="M76" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="N76" s="3">
         <v>-15700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-15600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-15500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-15400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-15300</v>
       </c>
       <c r="R76" s="3">
         <v>-15300</v>
       </c>
       <c r="S76" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="T76" s="3">
         <v>-15100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-14800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-13000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-12900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,113 +5048,119 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-200</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
         <v>6000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -4974,28 +5169,31 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,31 +5217,32 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,16 +5623,19 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -5427,7 +5644,7 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -5439,11 +5656,11 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -5469,13 +5686,16 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5719,14 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -5522,11 +5743,11 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5543,8 +5764,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,19 +5921,22 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -5714,18 +5944,18 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,26 +6287,29 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -6071,13 +6317,13 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -6104,13 +6350,16 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,38 +6423,41 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>IFNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,22 +836,28 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -897,8 +910,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,11 +927,11 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -965,8 +984,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,38 +1175,38 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-6200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-2400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1189,28 +1228,34 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -1224,11 +1269,11 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1337,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1298,46 +1351,46 @@
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>-6000</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>-2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
@@ -1354,8 +1407,14 @@
       <c r="X17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1366,46 +1425,46 @@
         <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6000</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
@@ -1422,8 +1481,14 @@
       <c r="X18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1475,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
@@ -1490,13 +1557,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
@@ -1505,30 +1572,36 @@
         <v>-100</v>
       </c>
       <c r="U20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1600</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-1300</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1584,32 +1657,38 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1652,76 +1731,88 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>6000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2300</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1755,27 +1846,27 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>6000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>2300</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-600</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
       </c>
       <c r="F27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>2300</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2291,13 +2430,13 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
@@ -2306,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
@@ -2321,87 +2460,99 @@
         <v>100</v>
       </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
         <v>1600</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>1300</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-600</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
       </c>
       <c r="F33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>2300</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-600</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
       </c>
       <c r="F35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>2300</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,44 +2832,46 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2729,13 +2902,19 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2744,29 +2923,29 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3">
         <v>100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2779,11 +2958,11 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2797,8 +2976,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2808,11 +2993,11 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2826,11 +3011,11 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2865,8 +3050,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,19 +3124,25 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2959,11 +3156,11 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3001,44 +3198,50 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -3069,8 +3272,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,23 +3346,29 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3166,11 +3381,11 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3205,8 +3420,14 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,44 +3790,50 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E54" s="3">
         <v>1100</v>
       </c>
       <c r="F54" s="3">
+        <v>900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -3613,8 +3864,14 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3924,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,22 +3935,22 @@
         <v>1100</v>
       </c>
       <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>6100</v>
       </c>
       <c r="K57" s="3">
         <v>6100</v>
@@ -3704,10 +3965,10 @@
         <v>6100</v>
       </c>
       <c r="O57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="P57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="Q57" s="3">
         <v>6000</v>
@@ -3733,46 +3994,52 @@
       <c r="X57" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>1100</v>
       </c>
       <c r="L58" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M58" s="3">
         <v>1100</v>
       </c>
       <c r="N58" s="3">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="O58" s="3">
-        <v>3500</v>
+        <v>1100</v>
       </c>
       <c r="P58" s="3">
         <v>3500</v>
@@ -3781,28 +4048,34 @@
         <v>3500</v>
       </c>
       <c r="R58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T58" s="3">
         <v>3400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3813,22 +4086,22 @@
         <v>1200</v>
       </c>
       <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>6000</v>
       </c>
       <c r="L59" s="3">
         <v>6000</v>
@@ -3840,16 +4113,16 @@
         <v>6000</v>
       </c>
       <c r="O59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="P59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q59" s="3">
         <v>5900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5900</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>5800</v>
-      </c>
-      <c r="R59" s="3">
-        <v>5700</v>
       </c>
       <c r="S59" s="3">
         <v>5800</v>
@@ -3858,99 +4131,111 @@
         <v>5700</v>
       </c>
       <c r="U59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="V59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="W59" s="3">
         <v>5600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>5400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>5300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>13300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>13300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>13200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>13200</v>
       </c>
       <c r="M60" s="3">
         <v>13200</v>
       </c>
       <c r="N60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="O60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="P60" s="3">
         <v>15600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>15500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>15400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>15300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>15200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>15200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>15000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>14700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>12800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>12600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4003,10 +4288,16 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4017,10 +4308,10 @@
         <v>1700</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4035,13 +4326,13 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -4065,16 +4356,22 @@
         <v>100</v>
       </c>
       <c r="V62" s="3">
+        <v>100</v>
+      </c>
+      <c r="W62" s="3">
+        <v>100</v>
+      </c>
+      <c r="X62" s="3">
         <v>200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>200</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F66" s="3">
         <v>4000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>13300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>13300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>15500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>15400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>15300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>15300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>15100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>14800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>13000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>12900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-119200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-118700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-118200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-117700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-117300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-117200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-117000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-123000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-122900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-122800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-122600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-122500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-124800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-124600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-124600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-124500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-124400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-124400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-124200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-123900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-122100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-121900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-121700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-6800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-6700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-13300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-13200</v>
       </c>
       <c r="L76" s="3">
         <v>-13300</v>
       </c>
       <c r="M76" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="N76" s="3">
         <v>-13300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="P76" s="3">
         <v>-15700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-15600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-15400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-15300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-15300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-15100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-14800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-13000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-12900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-600</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
       </c>
       <c r="F81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>2300</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,19 +5613,21 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -5244,11 +5641,11 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,31 +6053,37 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5659,14 +6092,14 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -5689,13 +6122,19 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,19 +6159,21 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -5746,14 +6187,14 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -5767,11 +6208,11 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5788,8 +6229,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5933,35 +6392,35 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6451,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,47 +6775,53 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -6353,13 +6844,19 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,44 +6923,50 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6995,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>IFNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,13 +846,16 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -859,8 +866,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,8 +943,8 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1181,35 +1201,35 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-6200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-2400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1234,19 +1254,22 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1257,8 +1280,8 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1275,8 +1298,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,61 +1365,62 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-6000</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>-2400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
@@ -1413,8 +1440,11 @@
       <c r="Z17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,52 +1452,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6000</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>2400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
@@ -1487,8 +1517,11 @@
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1548,25 +1582,25 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
@@ -1578,19 +1612,22 @@
         <v>-100</v>
       </c>
       <c r="W20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1600</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1601,11 +1638,11 @@
         <v>-400</v>
       </c>
       <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1663,19 +1700,22 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1684,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1737,52 +1777,55 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-500</v>
       </c>
       <c r="F23" s="3">
         <v>-500</v>
       </c>
       <c r="G23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>6000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1791,28 +1834,31 @@
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
       </c>
       <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1852,11 +1898,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1865,11 +1911,11 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,52 +2008,55 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F26" s="3">
         <v>-500</v>
       </c>
       <c r="G26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>6000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -2013,72 +2065,75 @@
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>6000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -2087,28 +2142,31 @@
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2436,25 +2506,25 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
@@ -2466,63 +2536,66 @@
         <v>100</v>
       </c>
       <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>1600</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1300</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>6000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2531,28 +2604,31 @@
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,52 +2701,55 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>6000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2679,107 +2758,113 @@
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2843,26 +2930,26 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2870,11 +2957,11 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2908,16 +2995,19 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2929,13 +3019,13 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
+      <c r="K42" s="3">
+        <v>100</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
@@ -2943,12 +3033,12 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3">
         <v>100</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2964,8 +3054,8 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2999,8 +3092,8 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -3017,8 +3110,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3144,8 +3243,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -3162,8 +3261,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3204,34 +3303,37 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -3240,11 +3342,11 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -3278,31 +3380,34 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3352,25 +3457,28 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="3">
         <v>800</v>
       </c>
       <c r="F48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -3387,8 +3495,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,34 +3919,37 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -3832,11 +3958,11 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,34 +4056,35 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>900</v>
       </c>
       <c r="H57" s="3">
         <v>900</v>
       </c>
       <c r="I57" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="J57" s="3">
         <v>1200</v>
       </c>
       <c r="K57" s="3">
-        <v>6100</v>
+        <v>1200</v>
       </c>
       <c r="L57" s="3">
         <v>6100</v>
@@ -3971,7 +4102,7 @@
         <v>6100</v>
       </c>
       <c r="Q57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="R57" s="3">
         <v>6000</v>
@@ -4000,34 +4131,37 @@
       <c r="Z57" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1100</v>
       </c>
       <c r="L58" s="3">
         <v>1100</v>
@@ -4036,13 +4170,13 @@
         <v>1100</v>
       </c>
       <c r="N58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>3500</v>
       </c>
       <c r="Q58" s="3">
         <v>3500</v>
@@ -4054,28 +4188,31 @@
         <v>3500</v>
       </c>
       <c r="T58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="U58" s="3">
         <v>3400</v>
       </c>
       <c r="V58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="W58" s="3">
         <v>3300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3100</v>
-      </c>
-      <c r="X58" s="3">
-        <v>1400</v>
       </c>
       <c r="Y58" s="3">
         <v>1400</v>
       </c>
       <c r="Z58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4092,19 +4229,19 @@
         <v>1200</v>
       </c>
       <c r="H59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I59" s="3">
         <v>2900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>5500</v>
       </c>
       <c r="J59" s="3">
         <v>5500</v>
       </c>
       <c r="K59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L59" s="3">
         <v>6100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>6000</v>
       </c>
       <c r="M59" s="3">
         <v>6000</v>
@@ -4119,69 +4256,72 @@
         <v>6000</v>
       </c>
       <c r="Q59" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="R59" s="3">
         <v>5900</v>
       </c>
       <c r="S59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="T59" s="3">
         <v>5800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5400</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>5300</v>
       </c>
       <c r="Z59" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>6900</v>
       </c>
       <c r="J60" s="3">
         <v>6900</v>
       </c>
       <c r="K60" s="3">
-        <v>13300</v>
+        <v>6900</v>
       </c>
       <c r="L60" s="3">
         <v>13300</v>
       </c>
       <c r="M60" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="N60" s="3">
         <v>13200</v>
@@ -4190,40 +4330,43 @@
         <v>13200</v>
       </c>
       <c r="P60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>15600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>15200</v>
       </c>
       <c r="U60" s="3">
         <v>15200</v>
       </c>
       <c r="V60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="W60" s="3">
         <v>15000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>12800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>12600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4234,11 +4377,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4294,10 +4437,13 @@
         <v>0</v>
       </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4314,7 +4460,7 @@
         <v>1700</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4332,10 +4478,10 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>200</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -4362,16 +4508,19 @@
         <v>100</v>
       </c>
       <c r="X62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y62" s="3">
         <v>200</v>
       </c>
       <c r="Z62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>6900</v>
       </c>
       <c r="J66" s="3">
         <v>6900</v>
       </c>
       <c r="K66" s="3">
-        <v>13300</v>
+        <v>6900</v>
       </c>
       <c r="L66" s="3">
         <v>13300</v>
       </c>
       <c r="M66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="N66" s="3">
         <v>13200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>15300</v>
       </c>
       <c r="U66" s="3">
         <v>15300</v>
       </c>
       <c r="V66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="W66" s="3">
         <v>15100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-119200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-118700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-118200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-117700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-117300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-117200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-117000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-123000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-122900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-122800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-122600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-122500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-124800</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-124600</v>
       </c>
       <c r="R72" s="3">
         <v>-124600</v>
       </c>
       <c r="S72" s="3">
+        <v>-124600</v>
+      </c>
+      <c r="T72" s="3">
         <v>-124500</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-124400</v>
       </c>
       <c r="U72" s="3">
         <v>-124400</v>
       </c>
       <c r="V72" s="3">
+        <v>-124400</v>
+      </c>
+      <c r="W72" s="3">
         <v>-124200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-123900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-122100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-121900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-121700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-13300</v>
       </c>
       <c r="L76" s="3">
         <v>-13300</v>
       </c>
       <c r="M76" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="N76" s="3">
         <v>-13200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-13300</v>
       </c>
       <c r="O76" s="3">
         <v>-13300</v>
       </c>
       <c r="P76" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-15600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-15500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-15400</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-15300</v>
       </c>
       <c r="U76" s="3">
         <v>-15300</v>
       </c>
       <c r="V76" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="W76" s="3">
         <v>-15100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-14800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,131 +5623,137 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>6000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -5567,28 +5762,31 @@
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5629,8 +5828,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -5647,8 +5846,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6068,16 +6285,16 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -6086,7 +6303,7 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -6098,11 +6315,11 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -6128,13 +6345,16 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6175,8 +6396,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -6193,11 +6414,11 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -6214,8 +6435,8 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,13 +6610,16 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6398,13 +6628,13 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -6412,18 +6642,18 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,35 +7024,38 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6817,13 +7063,13 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6850,13 +7096,16 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,47 +7178,50 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>
